--- a/课程目录/物理化学实验/电极制备及原电池电动势的测定/电极制备及原电池电动势原始记录表(非).xlsx
+++ b/课程目录/物理化学实验/电极制备及原电池电动势的测定/电极制备及原电池电动势原始记录表(非).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spyNow\物理化学实验\电极制备及原电池电动势的测定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Physical-Chemistry\电极制备及原电池电动势的测定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB74E6D-F746-4081-A9B0-28269609B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B68EA5-984A-435E-B32E-DA0C6890254B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="2280" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4776" yWindow="1716" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据记录" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +122,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +484,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,13 +510,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1.00569</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>1.03559</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>1.423E-2</v>
       </c>
     </row>
@@ -520,13 +524,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1.0069900000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>1.03759</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>1.4030000000000001E-2</v>
       </c>
     </row>
@@ -534,13 +538,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>1.0079899999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>1.0381899999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>1.4080000000000001E-2</v>
       </c>
     </row>
@@ -548,13 +552,13 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>1.0068900000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>1.0371233333333301</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>1.4113333333333301E-2</v>
       </c>
     </row>
